--- a/Algoritmo de ruteo.xlsx
+++ b/Algoritmo de ruteo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupologisticoandreani-my.sharepoint.com/personal/preadigos_andreani_com/Documents/Documents/GitHub/AspiradoraRobot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preadigos\OneDrive - ANDREANI LOGISTICA SA\Documents\GitHub\AspiradoraRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{028F34F8-09C2-4166-AD85-9DA7FD16A7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{028F34F8-09C2-4166-AD85-9DA7FD16A7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C26E610B-8F10-4608-8DF0-9A51E44783EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2BDBE0AB-BB4A-4F66-9DBD-25232B417117}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2BDBE0AB-BB4A-4F66-9DBD-25232B417117}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>Aspiradora</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>Objeto -&gt; A la izquierda</t>
+  </si>
+  <si>
+    <t>Funcion Moverse() - De Arriba hacia Abajo</t>
+  </si>
+  <si>
+    <t>Funcion Volver() - De izquierda a Derecha</t>
   </si>
 </sst>
 </file>
@@ -489,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF6C36-7012-49BC-9A6B-7F174FFA758A}">
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +745,164 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219B2F1E-1C11-4864-8CEF-BE4F3E0D6141}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009FC9846F49BB7A459C508325E753C126" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bc4427e9b60f606349b78467e33861fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7de229d4-2ac5-4357-8e42-88d18ecd064a" xmlns:ns4="579cb2ea-be62-4903-a1c0-a58bdedad049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38e4dc4525934bb2ffef62e797007f11" ns3:_="" ns4:_="">
     <xsd:import namespace="7de229d4-2ac5-4357-8e42-88d18ecd064a"/>
@@ -961,22 +1125,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21F180D-271D-4479-8FA5-CE15AD0DF2B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="579cb2ea-be62-4903-a1c0-a58bdedad049"/>
+    <ds:schemaRef ds:uri="7de229d4-2ac5-4357-8e42-88d18ecd064a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADC6212-4A49-4505-B6E4-2CC539657924}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E082618D-B111-4429-8C67-54A87127802C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -993,29 +1167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADC6212-4A49-4505-B6E4-2CC539657924}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21F180D-271D-4479-8FA5-CE15AD0DF2B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="579cb2ea-be62-4903-a1c0-a58bdedad049"/>
-    <ds:schemaRef ds:uri="7de229d4-2ac5-4357-8e42-88d18ecd064a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>